--- a/data/outputs/OR/9.xlsx
+++ b/data/outputs/OR/9.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ32"/>
+  <dimension ref="A1:BR32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -919,6 +924,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1132,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1333,6 +1340,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1540,6 +1548,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1751,6 +1760,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1958,6 +1968,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2161,6 +2172,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2368,6 +2380,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2579,6 +2592,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2790,6 +2804,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2997,6 +3012,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3184,6 +3200,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3383,6 +3400,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>21511158</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3590,6 +3612,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>21511160</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3797,6 +3824,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>21511159</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4000,6 +4032,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>21511162</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4091,7 +4128,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t> [MOST102-2923-H-009-001-MY3];  [RFH-NSC 13-22-10002]</t>
+          <t>[MOST102-2923-H-009-001-MY3];  [RFH-NSC 13-22-10002]</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -4215,6 +4252,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>21511155</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4426,6 +4468,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>21511156</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4633,6 +4680,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>21511157</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4832,6 +4884,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>21511161</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5035,6 +5092,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5234,6 +5292,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5433,6 +5492,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5644,6 +5704,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5851,6 +5912,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6050,6 +6112,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6265,6 +6328,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6480,6 +6544,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6687,6 +6752,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6894,6 +6960,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7109,6 +7176,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
